--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2841123.776493277</v>
+        <v>2839236.194976874</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>310.2076895021003</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>112.8682054096739</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.787420751036338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>92.14722804232336</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>238.4258463375498</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>334.9170046886393</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>112.2638403784901</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>95.68020095976658</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.73384166348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>169.7438101404417</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>75.06705067831012</v>
       </c>
       <c r="U16" t="n">
-        <v>82.62338840723066</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X19" t="n">
-        <v>28.46407351567271</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750031</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151917</v>
+        <v>256.032854633019</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>112.2536425510777</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>21.39284400464418</v>
+        <v>42.92025750557123</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789486</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417139</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463128</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463127</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415206</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2383.80799051105</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2383.80799051105</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.34223224997</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>293.9109374418338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>293.9109374418338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>147.0209899439234</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541695</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541695</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541695</v>
+        <v>62.81916439716883</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1916.245359491378</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1547.282842550966</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1189.017143944216</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>803.2288913459713</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>392.2429865563637</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.245359491378</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.342874726952</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.342874726952</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.342874726952</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,64 +5024,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571606</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636246</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307618</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526315</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765182</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5437,7 +5437,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799363</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U16" t="n">
-        <v>1191.672887259296</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V16" t="n">
-        <v>936.9883990534094</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W16" t="n">
-        <v>647.5712290164488</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>647.5712290164488</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.002216560966</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>986.002216560966</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240054</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>667.833457114235</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.0408779707049</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5908,22 +5908,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6078,13 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1129.22212203587</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>874.5376338299833</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>874.5376338299833</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>646.548082931966</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884358</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>210.6046091886472</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227913</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>620.2426249169043</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>620.2426249169043</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.2530740188869</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.2530740188869</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690278</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110222</v>
+        <v>439.5324299542203</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644861</v>
+        <v>326.3571123076842</v>
       </c>
       <c r="D31" t="n">
-        <v>360.062417126462</v>
+        <v>283.0033168475112</v>
       </c>
       <c r="E31" t="n">
-        <v>360.062417126462</v>
+        <v>283.0033168475112</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>957.994667138697</v>
+        <v>902.6804289818949</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220504</v>
+        <v>730.4517433652485</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598911</v>
+        <v>565.4200295030892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,67 +6683,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083212</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103137</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,13 +7108,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,19 +7187,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,16 +7345,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1006.183580119175</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982972</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776765</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>41.75994765618395</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>8.406710013101616</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,10 +9881,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978211</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298381</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>73.64859338270696</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>165.9802687929758</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>148.1350559470641</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>82.39383318338631</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.4805103800791</v>
       </c>
       <c r="U16" t="n">
-        <v>203.6139639913467</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X19" t="n">
-        <v>197.2455818733644</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715674</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338605</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338565</v>
+        <v>30.20449776555836</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>54.99317854755014</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338554</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>72.01937238501111</v>
+        <v>50.49195888408399</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571484</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193956</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="G2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934488</v>
       </c>
-      <c r="H2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="K2" t="n">
-        <v>630574.3128851687</v>
+        <v>630574.3128851685</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="O2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448203</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086704</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275948</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002543</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843567</v>
+        <v>-193294.5438843569</v>
       </c>
       <c r="C6" t="n">
         <v>396673.3353301878</v>
       </c>
       <c r="D6" t="n">
-        <v>396673.3353301878</v>
+        <v>396673.3353301875</v>
       </c>
       <c r="E6" t="n">
-        <v>-26097.98945360298</v>
+        <v>-26195.44857957527</v>
       </c>
       <c r="F6" t="n">
-        <v>499062.0470232925</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="G6" t="n">
-        <v>499062.0470232931</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="H6" t="n">
-        <v>499062.047023293</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="I6" t="n">
-        <v>499062.047023293</v>
+        <v>498964.5878973203</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278306999</v>
+        <v>322541.3687047279</v>
       </c>
       <c r="K6" t="n">
-        <v>456573.2069164646</v>
+        <v>456554.71317853</v>
       </c>
       <c r="L6" t="n">
-        <v>490784.9021611682</v>
+        <v>490784.9021611683</v>
       </c>
       <c r="M6" t="n">
-        <v>366326.7937281981</v>
+        <v>366326.793728198</v>
       </c>
       <c r="N6" t="n">
-        <v>501127.808962035</v>
+        <v>501127.8089620355</v>
       </c>
       <c r="O6" t="n">
-        <v>501127.8089620352</v>
+        <v>501127.8089620351</v>
       </c>
       <c r="P6" t="n">
         <v>456965.2036591897</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.286804207044001e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.286804207044001e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,16 +26762,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541004</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.286804207044001e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,37 +26966,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.286804207044001e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>17.54456896803458</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>273.3697332463797</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>171.044559430901</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>75.16257421672755</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126.8470454334578</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>78.86716533215571</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>174.2591579581009</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>259.0028406609164</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>147.8775586806141</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.398455188352259e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28333,10 +28333,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092011</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
@@ -35726,16 +35726,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>363.8358297686024</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>324.1236498972921</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>481.9867828282169</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>215.5001249446263</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686865</v>
@@ -36601,10 +36601,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>495.6240934217708</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>71.3855385946888</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412267</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>406.8431667807198</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>476.4046458434422</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595513</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352444</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>430.4987581881724</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502436</v>
@@ -38193,7 +38193,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
